--- a/lesson7/HW7.xlsx
+++ b/lesson7/HW7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\37529\OneDrive\Рабочий стол\GerusOlya\lesson7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2CE384-93E3-43A8-9B59-ACEA29239B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40462972-BD61-43C8-8C71-4F2BBFFFCA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{9A938318-AFE8-4D17-90B8-7EEAAC50AEE3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9A938318-AFE8-4D17-90B8-7EEAAC50AEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="А" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="119">
   <si>
     <t>id</t>
   </si>
@@ -75,9 +75,6 @@
     <t>mitsubishi lancer</t>
   </si>
   <si>
-    <t>(null)</t>
-  </si>
-  <si>
     <t>frank</t>
   </si>
   <si>
@@ -102,12 +99,6 @@
     <t>Ferrari f40</t>
   </si>
   <si>
-    <t>Maserati Quattroporte</t>
-  </si>
-  <si>
-    <t>Toyota Prius</t>
-  </si>
-  <si>
     <t>Spyker C8</t>
   </si>
   <si>
@@ -156,12 +147,6 @@
     <t xml:space="preserve">Возраст=Текущая_дата-Дата_рождения </t>
   </si>
   <si>
-    <t>Mercedes SL450, Ferrari f40, Maserati Quattroporte, Toyota Prius, Spyker C8</t>
-  </si>
-  <si>
-    <t>balck</t>
-  </si>
-  <si>
     <t>subaru impreza, daihatsu cuore</t>
   </si>
   <si>
@@ -192,9 +177,6 @@
     <t>Maserati</t>
   </si>
   <si>
-    <t>Quattroporto</t>
-  </si>
-  <si>
     <t>Amsterdam South</t>
   </si>
   <si>
@@ -276,9 +258,6 @@
     <t>Ruud</t>
   </si>
   <si>
-    <t>van Nistelroy</t>
-  </si>
-  <si>
     <t>Schermer</t>
   </si>
   <si>
@@ -345,28 +324,79 @@
     <t>Как и в первом задании)</t>
   </si>
   <si>
-    <t>mercedes SL450</t>
-  </si>
-  <si>
-    <t>mazda 626</t>
-  </si>
-  <si>
-    <t>ferrari f40</t>
-  </si>
-  <si>
-    <t>maserati Quattroporte</t>
-  </si>
-  <si>
-    <t>toyota Prius</t>
-  </si>
-  <si>
-    <t>spyker C8</t>
-  </si>
-  <si>
-    <t>maserati quattroporte</t>
-  </si>
-  <si>
-    <t>toyota prius</t>
+    <t>mitsubishi</t>
+  </si>
+  <si>
+    <t>subaru imp</t>
+  </si>
+  <si>
+    <t>Mercedes S</t>
+  </si>
+  <si>
+    <t>(NULL)</t>
+  </si>
+  <si>
+    <t>daihatsu</t>
+  </si>
+  <si>
+    <t>Ferrari f</t>
+  </si>
+  <si>
+    <t>Toyota Pr</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Bonham</t>
+  </si>
+  <si>
+    <t>Mitsubishi</t>
+  </si>
+  <si>
+    <t>Subaru imp</t>
+  </si>
+  <si>
+    <t>Daihatsu</t>
+  </si>
+  <si>
+    <t>van Nistelrooy</t>
+  </si>
+  <si>
+    <t>Quattropor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mercedes SL450, Ferrari f40, Maserati </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maserati </t>
+  </si>
+  <si>
+    <t>Subaru impreza</t>
+  </si>
+  <si>
+    <t>Mitsubishi lancer</t>
+  </si>
+  <si>
+    <t>Daihatsu cuore</t>
   </si>
 </sst>
 </file>
@@ -555,6 +585,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -564,7 +595,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -883,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCFF26F-1F4C-4D53-9E7C-603103B2F392}">
   <dimension ref="A2:H47"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -901,7 +931,7 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
@@ -948,19 +978,19 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>11</v>
+        <v>97</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -968,25 +998,25 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>11</v>
+        <v>98</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -994,25 +1024,25 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -1020,25 +1050,25 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -1063,7 +1093,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="38" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
@@ -1076,7 +1106,7 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>1</v>
@@ -1089,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -1101,10 +1131,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="5">
@@ -1113,8 +1143,8 @@
       <c r="G12" s="4">
         <v>1</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>10</v>
+      <c r="H12" s="20" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -1123,10 +1153,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="5">
@@ -1135,8 +1165,8 @@
       <c r="G13" s="4">
         <v>2</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>14</v>
+      <c r="H13" s="20" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -1144,10 +1174,10 @@
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="F14" s="5">
         <v>3</v>
@@ -1155,8 +1185,8 @@
       <c r="G14" s="4">
         <v>3</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>18</v>
+      <c r="H14" s="20" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -1164,10 +1194,10 @@
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="F15" s="5">
         <v>4</v>
@@ -1175,8 +1205,8 @@
       <c r="G15" s="4">
         <v>4</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>25</v>
+      <c r="H15" s="20" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -1189,8 +1219,8 @@
       <c r="G16" s="10">
         <v>2</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>15</v>
+      <c r="H16" s="20" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.35">
@@ -1203,12 +1233,11 @@
       <c r="G17" s="10">
         <v>3</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>19</v>
+      <c r="H17" s="20" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="F18" s="8">
@@ -1217,8 +1246,8 @@
       <c r="G18" s="10">
         <v>3</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>20</v>
+      <c r="H18" s="20" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.35">
@@ -1231,8 +1260,8 @@
       <c r="G19" s="10">
         <v>3</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>21</v>
+      <c r="H19" s="20" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.35">
@@ -1245,8 +1274,8 @@
       <c r="G20" s="10">
         <v>3</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>22</v>
+      <c r="H20" s="20" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.35">
@@ -1255,19 +1284,19 @@
       <c r="D21" s="2"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B23" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
+      <c r="B23" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" s="34" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.35">
@@ -1275,7 +1304,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.35">
@@ -1283,7 +1312,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.35">
@@ -1291,7 +1320,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.35">
@@ -1299,7 +1328,7 @@
         <v>4</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>102</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.35">
@@ -1307,7 +1336,7 @@
         <v>5</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.35">
@@ -1315,7 +1344,7 @@
         <v>6</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.35">
@@ -1323,7 +1352,7 @@
         <v>7</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -1331,7 +1360,7 @@
         <v>8</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -1339,25 +1368,25 @@
         <v>9</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B36" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
+      <c r="B36" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -1476,7 +1505,7 @@
   <dimension ref="A6:F16"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1488,68 +1517,68 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
+      <c r="A6" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
+      <c r="A7" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="42" t="s">
-        <v>28</v>
+      <c r="A15" s="43" t="s">
+        <v>25</v>
       </c>
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1564,10 +1593,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F651D930-18FF-485C-ABE0-A6F63F697FE7}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1583,7 +1612,7 @@
     <row r="1" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
@@ -1609,13 +1638,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4" s="19"/>
     </row>
@@ -1624,13 +1653,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>17</v>
-      </c>
       <c r="D5" s="20" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="E5" s="19"/>
     </row>
@@ -1639,13 +1668,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>39</v>
-      </c>
       <c r="D6" s="20" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E6" s="19"/>
     </row>
@@ -1667,7 +1696,7 @@
     <row r="9" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
@@ -1684,7 +1713,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -1692,13 +1721,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -1706,13 +1735,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="D13" s="12" t="s">
         <v>17</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -1720,13 +1749,13 @@
         <v>3</v>
       </c>
       <c r="B14" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>39</v>
-      </c>
       <c r="D14" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -1748,13 +1777,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>17</v>
-      </c>
       <c r="D16" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -1762,13 +1791,13 @@
         <v>6</v>
       </c>
       <c r="B17" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>17</v>
-      </c>
       <c r="D17" s="12" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -1776,317 +1805,260 @@
         <v>7</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C18" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B23" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B24" s="20">
+        <v>1</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="20">
+        <v>1</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B25" s="20">
+        <v>2</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="20">
+        <v>2</v>
+      </c>
+      <c r="G25" s="31" t="s">
         <v>17</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="21">
-        <v>8</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="21">
-        <v>9</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B25" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B26" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="F26" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G26" s="31" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B27" s="20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="F27" s="20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G27" s="31" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B28" s="20">
-        <v>3</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>39</v>
-      </c>
       <c r="F28" s="20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G28" s="31" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B29" s="20">
-        <v>4</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>9</v>
-      </c>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
       <c r="F29" s="20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G29" s="31" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
       <c r="F30" s="20">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G30" s="31" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="F31" s="20">
-        <v>2</v>
-      </c>
-      <c r="G31" s="31" t="s">
-        <v>107</v>
-      </c>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="28"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="22"/>
       <c r="B32" s="22"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
-      <c r="F32" s="20">
-        <v>2</v>
-      </c>
-      <c r="G32" s="31" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="F33" s="20">
-        <v>2</v>
-      </c>
-      <c r="G33" s="31" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="F34" s="20">
-        <v>3</v>
-      </c>
-      <c r="G34" s="31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="18" t="s">
+      <c r="F32" s="2"/>
+      <c r="G32" s="28"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36" s="35" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B34" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="20">
+        <v>1</v>
+      </c>
+      <c r="B35" s="20">
+        <v>1</v>
+      </c>
+      <c r="C35" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="20">
+        <v>2</v>
+      </c>
+      <c r="B36" s="20">
+        <v>2</v>
+      </c>
+      <c r="C36" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B37" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C37" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B38" s="20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C38" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="20">
-        <v>3</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="21">
+        <v>5</v>
       </c>
       <c r="B39" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="20">
-        <v>4</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="21">
+        <v>6</v>
       </c>
       <c r="B40" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C40" s="20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B41" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C41" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="21">
-        <v>6</v>
-      </c>
-      <c r="B42" s="20">
-        <v>2</v>
-      </c>
-      <c r="C42" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="21">
         <v>7</v>
-      </c>
-      <c r="B43" s="20">
-        <v>2</v>
-      </c>
-      <c r="C43" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="21">
-        <v>8</v>
-      </c>
-      <c r="B44" s="20">
-        <v>2</v>
-      </c>
-      <c r="C44" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="21">
-        <v>9</v>
-      </c>
-      <c r="B45" s="20">
-        <v>3</v>
-      </c>
-      <c r="C45" s="20">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A33:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2094,8 +2066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555CE10B-35B4-4FDA-BDCB-BA09FA429C6C}">
   <dimension ref="A2:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2112,7 +2084,7 @@
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
@@ -2122,22 +2094,22 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>43</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -2145,16 +2117,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F4" s="27">
         <v>20300</v>
@@ -2165,16 +2137,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C5" s="29">
         <v>1118</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F5" s="27">
         <v>150</v>
@@ -2185,16 +2157,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F6" s="27">
         <v>14800</v>
@@ -2205,16 +2177,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F7" s="27">
         <v>10200</v>
@@ -2225,16 +2197,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D8" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="27" t="s">
         <v>56</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>62</v>
       </c>
       <c r="F8" s="27">
         <v>82399</v>
@@ -2245,16 +2217,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F9" s="27">
         <v>22374</v>
@@ -2269,39 +2241,39 @@
       <c r="F10" s="28"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
+      <c r="A12" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -2309,22 +2281,22 @@
         <v>1</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="E14" s="27">
         <v>1</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H14" s="27">
         <v>1</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -2332,7 +2304,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C15" s="29">
         <v>1118</v>
@@ -2341,13 +2313,13 @@
         <v>2</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H15" s="27">
         <v>2</v>
       </c>
       <c r="I15" s="27" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -2355,22 +2327,22 @@
         <v>3</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E16" s="27">
         <v>3</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H16" s="27">
         <v>3</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -2378,22 +2350,22 @@
         <v>4</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E17" s="27">
         <v>4</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H17" s="27">
         <v>4</v>
       </c>
       <c r="I17" s="27" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -2401,10 +2373,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -2412,10 +2384,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -2423,16 +2395,16 @@
         <v>0</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
@@ -2565,8 +2537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88F0E4C-720C-4A56-A0E5-0AC995D29515}">
   <dimension ref="A2:H22"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2577,12 +2549,12 @@
     <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
@@ -2592,7 +2564,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>1</v>
@@ -2601,13 +2573,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -2615,19 +2587,19 @@
         <v>23</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -2635,19 +2607,19 @@
         <v>24</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D5" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="31" t="s">
         <v>70</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -2655,19 +2627,19 @@
         <v>25</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -2675,49 +2647,49 @@
         <v>19</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
+      <c r="A10" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>1</v>
@@ -2731,22 +2703,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F12" s="31">
         <v>23</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -2754,22 +2726,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="31" t="s">
         <v>70</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>76</v>
       </c>
       <c r="F13" s="31">
         <v>24</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -2777,22 +2749,22 @@
         <v>3</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F14" s="31">
         <v>25</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -2800,22 +2772,22 @@
         <v>4</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F15" s="31">
         <v>19</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -2823,10 +2795,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -2887,7 +2859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A46B260-C02A-40B3-8748-3F25E264D02A}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -2902,23 +2874,23 @@
     <row r="1" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -2972,16 +2944,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="37" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B11" s="37"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
